--- a/biology/Histoire de la zoologie et de la botanique/William_Derek_Clayton/William_Derek_Clayton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Derek_Clayton/William_Derek_Clayton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Derek Clayton, né le 24 juillet 1926 à Londres et mort le 8 septembre 2023[1], est un botaniste et agrostologue britannique[2].
-Il a poursuivi une carrière scientifique comme taxinomiste des Jardins botaniques royaux de Kew. Il a été notamment à la pointe du développement de la World Grass Flora (base de données en ligne sur les graminées) et de la World Checklist of Monocotyledons[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Derek Clayton, né le 24 juillet 1926 à Londres et mort le 8 septembre 2023, est un botaniste et agrostologue britannique.
+Il a poursuivi une carrière scientifique comme taxinomiste des Jardins botaniques royaux de Kew. Il a été notamment à la pointe du développement de la World Grass Flora (base de données en ligne sur les graminées) et de la World Checklist of Monocotyledons.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>M.D. Dassanayake, F. Raymond Fosberg, William Eerek Clayton. 1995. A Revised Handbook to the Flora of Ceylon, vol. 9. Éd. Amerind Pub. for the Smithsonian Institution and the National Sci. Found. 482 p.
 William Derek Clayton. 1982. Gramineae, Flora of tropical East Africa 2 (9). Éd. Minister for Overseas Development by the Crown Agents for Oversea Gov. &amp; Administr. 470 p.
@@ -546,16 +560,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Taxons dédiés à William Derek Clayton
-Famille des Poaceae
-Arundoclaytonia Davidse &amp; R.P.Ellis 1987[3].
+          <t>Taxons dédiés à William Derek Clayton</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Famille des Poaceae
+Arundoclaytonia Davidse &amp; R.P.Ellis 1987.
 Adenochloa claytonii (Renvoize) Zuloaga.
 Festuca claytonii E.B.Alexeev .
 Hyparrhenia claytonii S.M. Phillips.
 Panicum claytonii Renvoize.
 Triodia claytonii Lazarides.
 Famille des Orchidaceae
-Stichorkis claytoniana Marg.[4].
+Stichorkis claytoniana Marg..
 Liparis claytoniana (Marg.) J.M.H.Shaw.</t>
         </is>
       </c>
